--- a/HONDURAS/Delitos/DEPARTAMENTO Y MUNICIPIO HOMICIDIOS.xlsx
+++ b/HONDURAS/Delitos/DEPARTAMENTO Y MUNICIPIO HOMICIDIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5940CFA-060F-4A9B-8A6C-78E18270D5C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E1F79F-DD67-42FB-8321-204C21E06CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1714,25 +1714,6 @@
   <dxfs count="7">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1867,6 +1848,25 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1881,17 +1881,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{804A07B3-FA28-4721-9559-C71E6D3FC510}" name="homicidios_2019" displayName="homicidios_2019" ref="E4:I248" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{804A07B3-FA28-4721-9559-C71E6D3FC510}" name="homicidios_2019" displayName="homicidios_2019" ref="E4:I248" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="E4:I248" xr:uid="{A2357004-AFFC-4638-94D3-5C827277BE1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:I248">
     <sortCondition ref="F4:F248"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{D547DF37-D077-4AF2-A489-497DAE4BA60B}" name="Código departamento" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{CA995F55-F938-4398-AFFC-0A49685DFD1E}" name="Departamento" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{36D2613C-4A6E-42AE-B114-7B515261A8E5}" name="Código Municipio" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6232841E-6107-45E1-9B7E-42EABC7CC8A0}" name="     Municipio               " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D331A23B-14D4-4651-ABE6-51BC80D9D3FF}" name="Homicidios" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D547DF37-D077-4AF2-A489-497DAE4BA60B}" name="Código departamento" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CA995F55-F938-4398-AFFC-0A49685DFD1E}" name="Departamento" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{36D2613C-4A6E-42AE-B114-7B515261A8E5}" name="Código Municipio" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6232841E-6107-45E1-9B7E-42EABC7CC8A0}" name="     Municipio               " dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D331A23B-14D4-4651-ABE6-51BC80D9D3FF}" name="Homicidios" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2230,7 +2230,7 @@
     <col min="6" max="6" width="46.83203125" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" customWidth="1"/>
     <col min="8" max="8" width="38.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
